--- a/Metadata_GIAB_For_ScientificDataPaper_10052015.xlsx
+++ b/Metadata_GIAB_For_ScientificDataPaper_10052015.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiao2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\genome-in-a-bottle\giab_data_indexes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B7F358-B3D8-49AD-8BDB-CEA620E1EFC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="228" windowWidth="15840" windowHeight="5556"/>
+    <workbookView xWindow="-285" yWindow="600" windowWidth="28875" windowHeight="16335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequencing Data from GIAB" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="147">
   <si>
     <t>NIST ID</t>
   </si>
@@ -309,146 +310,19 @@
     <t>213 kb</t>
   </si>
   <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG005_NA24631_son/HG005_NA24631_son_HiSeq_300x/basespace_250bps_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG006_NA24694-huCA017E_father/NA24694_Father_HiSeq100x/NA24694_Father_HiSeq100x_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG007_NA24695-hu38168_mother/NA24695_Mother_HiSeq100x/NA24695_Mother_HiSeq100x_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/NIST_SOLiD5500W/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG005_NA24631_son/NIST_SOLiD5500W/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG005_NA24631_son/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG006_NA24694-huCA017E_father/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG007_NA24695-hu38168_mother/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG005_NA24631_son/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG006_NA24694-huCA017E_father/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG007_NA24695-hu38168_mother/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/CORNELL_Oxford_Nanopore/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/PacBio_MtSinai_NIST/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/PacBio_MtSinai_NIST/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/PacBio_MtSinai_NIST/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/ion_exome/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/ion_exome/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/ion_exome/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG005_NA24631_son/ion_exome/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/NIST_HiSeq_HG002_Homogeneity-10953946/HG002_HiSeq300x_fastq/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/NIST_HiSeq_HG003_Homogeneity-12389378/HG003_HiSeq300x_fastq/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/NIST_HiSeq_HG004_Homogeneity-14572558/HG004_HiSeq300x_fastq/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/10XGenomics/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/10XGenomics/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/10XGenomics/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/BioNano/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/BioNano/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/BioNano/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG005_NA24631_son/BioNano/</t>
-  </si>
-  <si>
     <t>564.56 bp</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>388 bp</t>
   </si>
   <si>
     <t>278 bp</t>
   </si>
   <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG004_NA24143_mother/CompleteGenomics_normal_RMDNA/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG003_NA24149_father/CompleteGenomics_normal_RMDNA/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/AshkenazimTrio/HG002_NA24385_son/CompleteGenomics_normal_RMDNA/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG006_NA24694-huCA017E_father/CompleteGenomics_normal_cellsDNA/</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG007_NA24695-hu38168_mother/CompleteGenomics_normal_cellsDNA/</t>
-  </si>
-  <si>
     <t>Sequencing Technology</t>
   </si>
   <si>
     <t>Population or Group</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG005_NA24631_son/CompleteGenomics_normal_RMDNA/                                  
-ftp://ftp-trace.ncbi.nlm.nih.gov/giab/ftp/data/ChineseTrio/HG005_NA24631_son/CompleteGenomics_normal_cellsDNA/</t>
   </si>
   <si>
     <t>Mean Coverage 
@@ -467,14 +341,138 @@
     <t>Location of the Sequence Data on GIAB ftp site</t>
   </si>
   <si>
-    <t>ftp://ftp-trace.ncbi.nih.gov/giab/ftp/data/AshkenazimTrio/analysis/CompleteGenomics_newLFR_CGAtools_06122015/</t>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/NIST_HiSeq_HG002_Homogeneity-10953946/HG002_HiSeq300x_fastq/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/NIST_HiSeq_HG003_Homogeneity-12389378/HG003_HiSeq300x_fastq/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/NIST_HiSeq_HG004_Homogeneity-14572558/HG004_HiSeq300x_fastq/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG005_NA24631_son/HG005_NA24631_son_HiSeq_300x/basespace_250bps_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG006_NA24694-huCA017E_father/NA24694_Father_HiSeq100x/NA24694_Father_HiSeq100x_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG007_NA24695-hu38168_mother/NA24695_Mother_HiSeq100x/NA24695_Mother_HiSeq100x_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG005_NA24631_son/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG006_NA24694-huCA017E_father/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG007_NA24695-hu38168_mother/NIST_Stanford_Illumina_6kb_matepair/fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG005_NA24631_son/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG006_NA24694-huCA017E_father/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG007_NA24695-hu38168_mother/NIST_Stanford_Moleculo/basespace_125bps_fastqs/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/10XGenomics/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/10XGenomics/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/10XGenomics/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/CompleteGenomics_normal_RMDNA/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/CompleteGenomics_normal_RMDNA/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/CompleteGenomics_normal_RMDNA/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG005_NA24631_son/CompleteGenomics_normal_RMDNA/                                  
+ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG005_NA24631_son/CompleteGenomics_normal_cellsDNA/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG006_NA24694-huCA017E_father/CompleteGenomics_normal_cellsDNA/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG007_NA24695-hu38168_mother/CompleteGenomics_normal_cellsDNA/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/analysis/CompleteGenomics_newLFR_CGAtools_06122015/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/ion_exome/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/ion_exome/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/ion_exome/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/NIST_SOLiD5500W/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG005_NA24631_son/ion_exome/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG005_NA24631_son/NIST_SOLiD5500W/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/PacBio_MtSinai_NIST/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/PacBio_MtSinai_NIST/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/PacBio_MtSinai_NIST/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/CORNELL_Oxford_Nanopore/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG002_NA24385_son/BioNano/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG003_NA24149_father/BioNano/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/AshkenazimTrio/HG004_NA24143_mother/BioNano/</t>
+  </si>
+  <si>
+    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/ReferenceSamples/giab/data/ChineseTrio/HG005_NA24631_son/BioNano/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,19 +531,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -678,7 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -689,15 +687,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -708,100 +697,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -850,6 +761,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -859,50 +806,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -999,6 +1006,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1034,6 +1058,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1209,1335 +1250,1387 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
-    <col min="12" max="12" width="135.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="146.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" s="63" t="s">
+      <c r="I1" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="L1" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="K1" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
+      <c r="L2" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="75"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="75"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="53" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="75"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="60" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="12" t="s">
+      <c r="I5" s="47"/>
+      <c r="J5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
+      <c r="L5" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="75"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29" t="s">
+      <c r="L6" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="76"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="L8" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="55"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4" t="s">
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="60" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="13" t="s">
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
+      <c r="L11" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29" t="s">
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="56"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="J14" s="24" t="s">
+      <c r="I14" s="44"/>
+      <c r="J14" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="59" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="L14" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="73"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="73"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4" t="s">
+      <c r="I16" s="45"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="60" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="73"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="73"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29" t="s">
+      <c r="I18" s="45"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="56"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="74"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="I19" s="46"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="5"/>
+      <c r="L20" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="66"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="10" t="s">
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="53" t="s">
+      <c r="L21" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="67"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="L22" s="54" t="s">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="52" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="55"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="66"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="53" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="66"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="53" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4" t="s">
+      <c r="I25" s="49"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="60" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="66"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14" t="s">
+      <c r="I26" s="49"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="L26" s="75" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="4"/>
+      <c r="L26" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="55"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="66"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="53" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29" t="s">
+      <c r="I27" s="49"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="56"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="67"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="54" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="I28" s="50"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="J29" s="24" t="s">
+      <c r="I29" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K29" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="L29" s="81" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="5"/>
+      <c r="L29" s="84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="55"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="66"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="82"/>
-    </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="43" t="s">
+      <c r="I30" s="49"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="85"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="56"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="30" t="s">
+      <c r="G31" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="30" t="s">
+      <c r="H31" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="67"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="83"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+      <c r="I31" s="50"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="86"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K32" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="L32" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="55"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
       <c r="E34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="53" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="79" t="s">
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="56"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="80" t="s">
+      <c r="E35" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="H35" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="56" t="s">
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="L35" s="54" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+      <c r="L35" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="L36" s="59" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="36"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="47" t="s">
+      <c r="L36" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="56"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="72" t="s">
+      <c r="I38" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="24" t="s">
+      <c r="J38" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="K38" s="22" t="s">
+      <c r="K38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="L38" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="L38" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="55"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
       <c r="E39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I39" s="73"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="13" t="s">
+      <c r="I39" s="78"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="L39" s="53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="43" t="s">
+      <c r="L39" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="56"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="30" t="s">
+      <c r="G40" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="30" t="s">
+      <c r="H40" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I40" s="74"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="48" t="s">
+      <c r="I40" s="79"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="51" t="s">
+      <c r="G41" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="51" t="s">
+      <c r="H41" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I41" s="68" t="s">
+      <c r="I41" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="51" t="s">
+      <c r="J41" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="K41" s="51" t="s">
+      <c r="K41" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L41" s="55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="34" t="s">
+      <c r="L41" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I42" s="69" t="s">
+      <c r="I42" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="22" t="s">
+      <c r="J42" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="K42" s="22" t="s">
+      <c r="K42" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L42" s="59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="L42" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="55"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
       <c r="E43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I43" s="70"/>
-      <c r="J43" s="12" t="s">
+      <c r="I43" s="82"/>
+      <c r="J43" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L43" s="53" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="L43" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="55"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
       <c r="E44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I44" s="70"/>
-      <c r="J44" s="12" t="s">
+      <c r="I44" s="82"/>
+      <c r="J44" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L44" s="53" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="36"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="47" t="s">
+      <c r="L44" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="56"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="30" t="s">
+      <c r="F45" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="30" t="s">
+      <c r="G45" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H45" s="31" t="s">
+      <c r="H45" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I45" s="71"/>
-      <c r="J45" s="31" t="s">
+      <c r="I45" s="83"/>
+      <c r="J45" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="K45" s="30" t="s">
+      <c r="K45" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="L45" s="54" t="s">
-        <v>130</v>
+      <c r="L45" s="25" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="I29:I31"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="I42:I45"/>
     <mergeCell ref="I38:I40"/>
     <mergeCell ref="I14:I19"/>
     <mergeCell ref="L29:L31"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="I23:I28"/>
-    <mergeCell ref="I29:I31"/>
     <mergeCell ref="I32:I35"/>
     <mergeCell ref="J38:J40"/>
     <mergeCell ref="K39:K40"/>
@@ -2549,103 +2642,49 @@
     <mergeCell ref="J20:J22"/>
     <mergeCell ref="J29:J31"/>
     <mergeCell ref="J23:J28"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="J14:J19"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1"/>
-    <hyperlink ref="L6" r:id="rId2"/>
-    <hyperlink ref="L7" r:id="rId3"/>
-    <hyperlink ref="L36" r:id="rId4"/>
-    <hyperlink ref="L37" r:id="rId5"/>
-    <hyperlink ref="L8" r:id="rId6"/>
-    <hyperlink ref="L9" r:id="rId7"/>
-    <hyperlink ref="L10" r:id="rId8"/>
-    <hyperlink ref="L11" r:id="rId9"/>
-    <hyperlink ref="L12" r:id="rId10"/>
-    <hyperlink ref="L13" r:id="rId11"/>
-    <hyperlink ref="L14" r:id="rId12"/>
-    <hyperlink ref="L15" r:id="rId13"/>
-    <hyperlink ref="L16" r:id="rId14"/>
-    <hyperlink ref="L17" r:id="rId15"/>
-    <hyperlink ref="L18" r:id="rId16"/>
-    <hyperlink ref="L19" r:id="rId17"/>
-    <hyperlink ref="L20" r:id="rId18"/>
-    <hyperlink ref="L21" r:id="rId19"/>
-    <hyperlink ref="L22" r:id="rId20"/>
-    <hyperlink ref="L41" r:id="rId21"/>
-    <hyperlink ref="L42" r:id="rId22"/>
-    <hyperlink ref="L43" r:id="rId23"/>
-    <hyperlink ref="L44" r:id="rId24"/>
-    <hyperlink ref="L45" r:id="rId25"/>
-    <hyperlink ref="L38" r:id="rId26"/>
-    <hyperlink ref="L39" r:id="rId27"/>
-    <hyperlink ref="L40" r:id="rId28"/>
-    <hyperlink ref="L33" r:id="rId29"/>
-    <hyperlink ref="L34" r:id="rId30"/>
-    <hyperlink ref="L35" r:id="rId31"/>
-    <hyperlink ref="L2" r:id="rId32"/>
-    <hyperlink ref="L3" r:id="rId33"/>
-    <hyperlink ref="L4" r:id="rId34"/>
-    <hyperlink ref="L32" r:id="rId35"/>
-    <hyperlink ref="L24" r:id="rId36"/>
-    <hyperlink ref="L29" r:id="rId37"/>
-    <hyperlink ref="L23" r:id="rId38"/>
-    <hyperlink ref="L27" r:id="rId39"/>
-    <hyperlink ref="L28" r:id="rId40"/>
-    <hyperlink ref="L25" r:id="rId41"/>
+    <hyperlink ref="L5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L37" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L41" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L42" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L43" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L44" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L45" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L38" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L39" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="L40" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="L33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L2" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L3" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="L4" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="L32" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L24" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="L29" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="L23" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L27" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L28" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L25" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId42"/>
